--- a/Cat_facts_Test_Cases.xlsx
+++ b/Cat_facts_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/PycharmProjects/API_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5BBD9C-66C8-1F41-9AFF-DA90706174EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B899C9-7819-DC4D-BC13-5A43EE786708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{3E769F50-DBE6-D84F-8F60-BE2C9F4859B9}"/>
   </bookViews>
@@ -579,10 +579,10 @@
     <t>Validate Cat Fact API with illegal Values</t>
   </si>
   <si>
-    <t>Validate Cat Fact API with invalid parameter</t>
-  </si>
-  <si>
     <t>Validate Cat Fact API robustness</t>
+  </si>
+  <si>
+    <t>Validate Cat Fact API with invalid parameter value</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,24 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -709,29 +726,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -805,10 +805,10 @@
   <autoFilter ref="A1:E7" xr:uid="{AE0B384A-FD54-8349-8C0F-3FD6E86D64A4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D6DB52ED-27D9-4841-9F3A-57985765869A}" name="Test Scenario" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{8E03FE19-079B-EE4E-9236-1B4A8ECE48E0}" name="Test Summary" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{46239225-584B-D743-AADB-8CB529F455A6}" name="Test Steps" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00635438-24CA-3742-9FB2-4D8798D9BDE3}" name="Test Data" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D96BC834-C241-FF48-B75E-9114396B3376}" name="Expected Outcome" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{8E03FE19-079B-EE4E-9236-1B4A8ECE48E0}" name="Test Summary" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{46239225-584B-D743-AADB-8CB529F455A6}" name="Test Steps" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00635438-24CA-3742-9FB2-4D8798D9BDE3}" name="Test Data" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D96BC834-C241-FF48-B75E-9114396B3376}" name="Expected Outcome" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B1CA8-177D-2D47-BEAB-CEBD004E4759}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1214,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
